--- a/Bainbridge_Corbin_Rochelle.xlsx
+++ b/Bainbridge_Corbin_Rochelle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbin/Documents/GitHub/Lab-1-Bainbridge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A611B1FD-BA04-7240-9E3D-480896EF2836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E0375E-9CF6-C749-BAC8-BDBA644E6917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{5EE31F9F-B044-458F-B7D2-CD0B5C58CE29}"/>
   </bookViews>
@@ -16,16 +16,6 @@
     <sheet name="I_E" sheetId="1" r:id="rId1"/>
     <sheet name="Helmholtz" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Helmholtz!$AA$15:$AA$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Helmholtz!$I$3:$I$42</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Helmholtz!$K$3:$K$42</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Helmholtz!$Y$15:$Y$16</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Helmholtz!$AA$15:$AA$16</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Helmholtz!$I$3:$I$42</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Helmholtz!$K$3:$K$42</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Helmholtz!$Y$15:$Y$16</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -337,8 +327,9 @@
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
+            <c:val val="2.2659829000000003E-2"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -683,7 +674,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>250</c:v>
@@ -698,10 +689,10 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.5644125736119081</c:v>
+                  <c:v>1.3902954280230717</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5164820508793539</c:v>
+                  <c:v>4.5178434790116153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -728,6 +719,8 @@
         <c:axId val="1997108047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="70"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -766,13 +759,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Sqrt(d)</a:t>
+                  <a:t>Sqrt(V_acc)/r</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> [Sqrt(m)]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -850,6 +838,8 @@
         <c:axId val="1996753039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.5199999999999996"/>
+          <c:min val="1.3900000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1920,7 +1910,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -3225,10 +3215,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AA43"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3274,32 +3264,32 @@
       <c r="L1" s="3">
         <v>2.1713506831987344E-2</v>
       </c>
-      <c r="M1" s="3">
-        <v>0</v>
+      <c r="M1" s="10">
+        <v>1.7365114572161444E-2</v>
       </c>
       <c r="O1" s="10">
         <f>SUM(O3:O42)</f>
-        <v>84839.881246428646</v>
+        <v>78174.436200348195</v>
       </c>
       <c r="P1" s="10">
         <f>SUM(P3:P42)</f>
-        <v>12524592.771607293</v>
+        <v>11381587.010443835</v>
       </c>
       <c r="Q1" s="10">
         <f t="shared" ref="Q1:S1" si="0">SUM(Q3:Q42)</f>
-        <v>1973776896.4936719</v>
+        <v>1769104730.0521536</v>
       </c>
       <c r="R1" s="10">
         <f t="shared" si="0"/>
-        <v>232355.22476365615</v>
+        <v>211362.55502308675</v>
       </c>
       <c r="S1" s="10">
         <f t="shared" si="0"/>
-        <v>36469213.282879174</v>
+        <v>32719367.447890677</v>
       </c>
       <c r="T1" s="11">
         <f>SUM(T3:T42)</f>
-        <v>37.999999999999986</v>
+        <v>33.120825531481543</v>
       </c>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
@@ -3367,11 +3357,11 @@
       </c>
       <c r="W2" s="10">
         <f>O1</f>
-        <v>84839.881246428646</v>
+        <v>78174.436200348195</v>
       </c>
       <c r="X2" s="10">
         <f>P1</f>
-        <v>12524592.771607293</v>
+        <v>11381587.010443835</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -3413,41 +3403,41 @@
       </c>
       <c r="M3" s="3">
         <f>M11</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2065839197475099E-2</v>
       </c>
       <c r="O3" s="10">
         <f>1/M3^2</f>
-        <v>2120.997031160714</v>
+        <v>2053.8045045310546</v>
       </c>
       <c r="P3" s="10">
         <f>O3*I3</f>
-        <v>508255.01462277881</v>
+        <v>492153.65375193878</v>
       </c>
       <c r="Q3" s="10">
         <f>P3*I3</f>
-        <v>121793268.02161244</v>
+        <v>117934895.15044582</v>
       </c>
       <c r="R3" s="10">
         <f>O3*K3</f>
-        <v>9205.1271152374975</v>
+        <v>8913.5115496647759</v>
       </c>
       <c r="S3" s="10">
         <f>K3*I3*O3</f>
-        <v>2205826.7634628601</v>
+        <v>2135946.8572834143</v>
       </c>
       <c r="T3" s="11">
         <f>O3*(K3-W$11-W$12*I3)^2</f>
-        <v>2.7337540508727436E-2</v>
+        <v>1.1187981496906956E-2</v>
       </c>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
       <c r="W3" s="10">
         <f>P1</f>
-        <v>12524592.771607293</v>
+        <v>11381587.010443835</v>
       </c>
       <c r="X3" s="10">
         <f>Q1</f>
-        <v>1973776896.4936719</v>
+        <v>1769104730.0521536</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
@@ -3472,15 +3462,15 @@
         <v>3.68</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ref="I4:I42" si="1">SQRT(A4)/(D4/2)</f>
+        <f>SQRT(A4)/(D4/2)</f>
         <v>200.36179554871404</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:J42" si="2">I4*SQRT((B4/A4/2)^2+(E4/D4)^2)</f>
+        <f t="shared" ref="J4:J42" si="1">I4*SQRT((B4/A4/2)^2+(E4/D4)^2)</f>
         <v>0.51812993837293608</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:K42" si="3">F4</f>
+        <f t="shared" ref="K4:K42" si="2">F4</f>
         <v>3.68</v>
       </c>
       <c r="L4" s="3">
@@ -3489,31 +3479,31 @@
       </c>
       <c r="M4" s="3">
         <f>SQRT(L4^2+(M1*J4)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.3503815204198954E-2</v>
       </c>
       <c r="O4" s="10">
-        <f t="shared" ref="O4:O42" si="4">1/M4^2</f>
-        <v>2120.997031160714</v>
+        <f t="shared" ref="O4:O42" si="3">1/M4^2</f>
+        <v>1810.1862939337152</v>
       </c>
       <c r="P4" s="10">
-        <f t="shared" ref="P4:P42" si="5">O4*I4</f>
-        <v>424966.77351685241</v>
+        <f t="shared" ref="P4:P42" si="4">O4*I4</f>
+        <v>362692.17613023141</v>
       </c>
       <c r="Q4" s="10">
-        <f t="shared" ref="Q4:Q42" si="6">P4*I4</f>
-        <v>85147105.790380254</v>
+        <f t="shared" ref="Q4:Q42" si="5">P4*I4</f>
+        <v>72669655.640923604</v>
       </c>
       <c r="R4" s="10">
-        <f t="shared" ref="R4:R42" si="7">O4*K4</f>
-        <v>7805.2690746714279</v>
+        <f t="shared" ref="R4:R42" si="6">O4*K4</f>
+        <v>6661.4855616760724</v>
       </c>
       <c r="S4" s="10">
-        <f t="shared" ref="S4:S42" si="8">K4*I4*O4</f>
-        <v>1563877.726542017</v>
+        <f t="shared" ref="S4:S42" si="7">K4*I4*O4</f>
+        <v>1334707.2081592516</v>
       </c>
       <c r="T4" s="11">
-        <f t="shared" ref="T4:T42" si="9">O4*(K4-W$11-W$12*I4)^2</f>
-        <v>1.3782110711371187</v>
+        <f t="shared" ref="T4:T42" si="8">O4*(K4-W$11-W$12*I4)^2</f>
+        <v>1.098444539528771</v>
       </c>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
@@ -3534,22 +3524,22 @@
         <v>9.0200000000000002E-2</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E42" si="10">E4</f>
+        <f t="shared" ref="E5:E42" si="9">E4</f>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F5" s="8">
         <v>3.18</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I4:I42" si="10">SQRT(A5)/(D5/2)</f>
         <v>172.15121014440507</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.38277685103455117</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.18</v>
       </c>
       <c r="L5" s="3">
@@ -3558,31 +3548,31 @@
       </c>
       <c r="M5" s="3">
         <f>SQRT(L5^2+(M1*J5)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2708115458623581E-2</v>
       </c>
       <c r="O5" s="10">
+        <f t="shared" si="3"/>
+        <v>1939.267916852328</v>
+      </c>
+      <c r="P5" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P5" s="10">
+        <v>333847.31868034776</v>
+      </c>
+      <c r="Q5" s="10">
         <f t="shared" si="5"/>
-        <v>365132.20562700735</v>
-      </c>
-      <c r="Q5" s="10">
+        <v>57472219.914286718</v>
+      </c>
+      <c r="R5" s="10">
         <f t="shared" si="6"/>
-        <v>62857951.061385065</v>
-      </c>
-      <c r="R5" s="10">
+        <v>6166.8719755904031</v>
+      </c>
+      <c r="S5" s="10">
         <f t="shared" si="7"/>
-        <v>6744.7705590910709</v>
-      </c>
-      <c r="S5" s="10">
+        <v>1061634.473403506</v>
+      </c>
+      <c r="T5" s="11">
         <f t="shared" si="8"/>
-        <v>1161120.4138938833</v>
-      </c>
-      <c r="T5" s="11">
-        <f t="shared" si="9"/>
-        <v>0.50112976374785712</v>
+        <v>0.4247787633080039</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="10" t="s">
@@ -3590,7 +3580,7 @@
       </c>
       <c r="W5" s="10">
         <f>R1</f>
-        <v>232355.22476365615</v>
+        <v>211362.55502308675</v>
       </c>
       <c r="X5" s="10"/>
     </row>
@@ -3609,22 +3599,22 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F6" s="8">
         <v>2.8</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>150.75766169927513</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.29379972289137896</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
       <c r="L6" s="3">
@@ -3633,37 +3623,37 @@
       </c>
       <c r="M6" s="3">
         <f>SQRT(L6^2+(M1*J6)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2304829389322642E-2</v>
       </c>
       <c r="O6" s="10">
+        <f t="shared" si="3"/>
+        <v>2010.0283769485723</v>
+      </c>
+      <c r="P6" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P6" s="10">
+        <v>303027.17805795593</v>
+      </c>
+      <c r="Q6" s="10">
         <f t="shared" si="5"/>
-        <v>319756.55288889381</v>
-      </c>
-      <c r="Q6" s="10">
+        <v>45683668.795347326</v>
+      </c>
+      <c r="R6" s="10">
         <f t="shared" si="6"/>
-        <v>48205750.226550229</v>
-      </c>
-      <c r="R6" s="10">
+        <v>5628.0794554560016</v>
+      </c>
+      <c r="S6" s="10">
         <f t="shared" si="7"/>
-        <v>5938.7916872499991</v>
-      </c>
-      <c r="S6" s="10">
+        <v>848476.09856227657</v>
+      </c>
+      <c r="T6" s="11">
         <f t="shared" si="8"/>
-        <v>895318.34808890265</v>
-      </c>
-      <c r="T6" s="11">
-        <f t="shared" si="9"/>
-        <v>0.10017805751489403</v>
+        <v>8.5411511918501298E-2</v>
       </c>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
       <c r="W6" s="10">
         <f>S1</f>
-        <v>36469213.282879174</v>
+        <v>32719367.447890677</v>
       </c>
       <c r="X6" s="10"/>
     </row>
@@ -3682,22 +3672,22 @@
         <v>0.1154</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F7" s="8">
         <v>2.5299999999999998</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>134.55839822378977</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.23426936875096899</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="L7" s="3">
@@ -3706,31 +3696,31 @@
       </c>
       <c r="M7" s="3">
         <f>SQRT(L7^2+(M1*J7)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.209130901397837E-2</v>
       </c>
       <c r="O7" s="10">
+        <f t="shared" si="3"/>
+        <v>2049.0714333641058</v>
+      </c>
+      <c r="P7" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P7" s="10">
+        <v>275719.76991959906</v>
+      </c>
+      <c r="Q7" s="10">
         <f t="shared" si="5"/>
-        <v>285397.96315039915</v>
-      </c>
-      <c r="Q7" s="10">
+        <v>37100410.599013098</v>
+      </c>
+      <c r="R7" s="10">
         <f t="shared" si="6"/>
-        <v>38402692.77784989</v>
-      </c>
-      <c r="R7" s="10">
+        <v>5184.150726411187</v>
+      </c>
+      <c r="S7" s="10">
         <f t="shared" si="7"/>
-        <v>5366.122488836606</v>
-      </c>
-      <c r="S7" s="10">
+        <v>697571.01789658552</v>
+      </c>
+      <c r="T7" s="11">
         <f t="shared" si="8"/>
-        <v>722056.84677050984</v>
-      </c>
-      <c r="T7" s="11">
-        <f t="shared" si="9"/>
-        <v>0.70059869263305319</v>
+        <v>0.66280556149677583</v>
       </c>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
@@ -3752,22 +3742,22 @@
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F8" s="8">
         <v>3.33</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>183.1940277994037</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.56779974950125789</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.33</v>
       </c>
       <c r="L8" s="3">
@@ -3776,31 +3766,31 @@
       </c>
       <c r="M8" s="3">
         <f>SQRT(L8^2+(M1*J8)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.3847309258631263E-2</v>
       </c>
       <c r="O8" s="10">
+        <f t="shared" si="3"/>
+        <v>1758.4144032269478</v>
+      </c>
+      <c r="P8" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P8" s="10">
+        <v>322131.01706762932</v>
+      </c>
+      <c r="Q8" s="10">
         <f t="shared" si="5"/>
-        <v>388553.98908890854</v>
-      </c>
-      <c r="Q8" s="10">
+        <v>59012478.495737471</v>
+      </c>
+      <c r="R8" s="10">
         <f t="shared" si="6"/>
-        <v>71180770.278722718</v>
-      </c>
-      <c r="R8" s="10">
+        <v>5855.5199627457359</v>
+      </c>
+      <c r="S8" s="10">
         <f t="shared" si="7"/>
-        <v>7062.920113765178</v>
-      </c>
-      <c r="S8" s="10">
+        <v>1072696.2868352057</v>
+      </c>
+      <c r="T8" s="11">
         <f t="shared" si="8"/>
-        <v>1293884.7836660654</v>
-      </c>
-      <c r="T8" s="11">
-        <f t="shared" si="9"/>
-        <v>1.476983715894379</v>
+        <v>1.2887183322508027</v>
       </c>
       <c r="U8" s="10"/>
       <c r="V8" s="10" t="s">
@@ -3808,10 +3798,10 @@
       </c>
       <c r="W8" s="10" cm="1">
         <f t="array" ref="W8:X9">MINVERSE(W2:X3)</f>
-        <v>1.8638870707177237E-4</v>
+        <v>2.0199313231167838E-4</v>
       </c>
       <c r="X8" s="10">
-        <v>-1.1827287356779708E-6</v>
+        <v>-1.2995287231240885E-6</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -3829,22 +3819,22 @@
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F9" s="8">
         <v>2.82</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>153.17384517937236</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.39767127197417651</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.82</v>
       </c>
       <c r="L9" s="3">
@@ -3853,39 +3843,39 @@
       </c>
       <c r="M9" s="3">
         <f>SQRT(L9^2+(M1*J9)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2785166002070655E-2</v>
       </c>
       <c r="O9" s="10">
+        <f t="shared" si="3"/>
+        <v>1926.1743976734472</v>
+      </c>
+      <c r="P9" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P9" s="10">
+        <v>295039.53897770343</v>
+      </c>
+      <c r="Q9" s="10">
         <f t="shared" si="5"/>
-        <v>324881.27087691962</v>
-      </c>
-      <c r="Q9" s="10">
+        <v>45192340.665164143</v>
+      </c>
+      <c r="R9" s="10">
         <f t="shared" si="6"/>
-        <v>49763313.486979023</v>
-      </c>
-      <c r="R9" s="10">
+        <v>5431.8118014391212</v>
+      </c>
+      <c r="S9" s="10">
         <f t="shared" si="7"/>
-        <v>5981.2116278732128</v>
-      </c>
-      <c r="S9" s="10">
+        <v>832011.49991712358</v>
+      </c>
+      <c r="T9" s="11">
         <f t="shared" si="8"/>
-        <v>916165.18387291336</v>
-      </c>
-      <c r="T9" s="11">
-        <f t="shared" si="9"/>
-        <v>0.48263404644130381</v>
+        <v>0.46056810758952821</v>
       </c>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10">
-        <v>-1.1827287356779708E-6</v>
+        <v>-1.299528723124089E-6</v>
       </c>
       <c r="X9" s="10">
-        <v>8.0116429580952101E-9</v>
+        <v>8.9258136991936463E-9</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -3903,22 +3893,22 @@
         <v>9.0200000000000002E-2</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F10" s="8">
         <v>2.46</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>131.60723948338534</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.29419346211520025</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.46</v>
       </c>
       <c r="L10" s="3">
@@ -3927,31 +3917,31 @@
       </c>
       <c r="M10" s="3">
         <f>SQRT(L10^2+(M1*J10)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2306394309330877E-2</v>
       </c>
       <c r="O10" s="10">
+        <f t="shared" si="3"/>
+        <v>2009.7463570719322</v>
+      </c>
+      <c r="P10" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P10" s="10">
+        <v>264497.17011602706</v>
+      </c>
+      <c r="Q10" s="10">
         <f t="shared" si="5"/>
-        <v>279138.56422351743</v>
-      </c>
-      <c r="Q10" s="10">
+        <v>34809742.410137683</v>
+      </c>
+      <c r="R10" s="10">
         <f t="shared" si="6"/>
-        <v>36736655.870812796</v>
-      </c>
-      <c r="R10" s="10">
+        <v>4943.9760383969533</v>
+      </c>
+      <c r="S10" s="10">
         <f t="shared" si="7"/>
-        <v>5217.6526966553565</v>
-      </c>
-      <c r="S10" s="10">
+        <v>650663.03848542657</v>
+      </c>
+      <c r="T10" s="11">
         <f t="shared" si="8"/>
-        <v>686680.86798985279</v>
-      </c>
-      <c r="T10" s="11">
-        <f t="shared" si="9"/>
-        <v>7.090816164730321E-4</v>
+        <v>1.0935882394267642E-3</v>
       </c>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
@@ -3973,22 +3963,22 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F11" s="8">
         <v>2.1800000000000002</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>115.25216506214912</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.22616909053374745</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.1800000000000002</v>
       </c>
       <c r="L11" s="3">
@@ -3997,31 +3987,31 @@
       </c>
       <c r="M11" s="3">
         <f>SQRT(L11^2+(M1*J11)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2065839197475099E-2</v>
       </c>
       <c r="O11" s="10">
+        <f t="shared" si="3"/>
+        <v>2053.8045045310546</v>
+      </c>
+      <c r="P11" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P11" s="10">
+        <v>236705.4157615985</v>
+      </c>
+      <c r="Q11" s="10">
         <f t="shared" si="5"/>
-        <v>244449.49993166284</v>
-      </c>
-      <c r="Q11" s="10">
+        <v>27280811.648460384</v>
+      </c>
+      <c r="R11" s="10">
         <f t="shared" si="6"/>
-        <v>28173334.115483817</v>
-      </c>
-      <c r="R11" s="10">
+        <v>4477.2938198776992</v>
+      </c>
+      <c r="S11" s="10">
         <f t="shared" si="7"/>
-        <v>4623.773527930357</v>
-      </c>
-      <c r="S11" s="10">
+        <v>516017.80636028474</v>
+      </c>
+      <c r="T11" s="11">
         <f t="shared" si="8"/>
-        <v>532899.90985102498</v>
-      </c>
-      <c r="T11" s="11">
-        <f t="shared" si="9"/>
-        <v>2.4946642381927748E-2</v>
+        <v>2.424916271006863E-2</v>
       </c>
       <c r="U11" s="10"/>
       <c r="V11" s="10" t="s">
@@ -4029,11 +4019,11 @@
       </c>
       <c r="W11" s="10" cm="1">
         <f t="array" ref="W11:W12">MMULT(_xlfn.ANCHORARRAY(W8),W5:W6)</f>
-        <v>0.17520340783899258</v>
+        <v>0.17402674152752695</v>
       </c>
       <c r="X11" s="10">
         <f>SQRT(W8)</f>
-        <v>1.3652424952065196E-2</v>
+        <v>1.4212428797066263E-2</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -4051,22 +4041,22 @@
         <v>0.1154</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F12" s="8">
         <v>1.97</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>102.86805027210882</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.18065614444226932</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.97</v>
       </c>
       <c r="L12" s="3">
@@ -4075,40 +4065,40 @@
       </c>
       <c r="M12" s="3">
         <f>SQRT(L12^2+(M1*J12)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.1938957752077687E-2</v>
       </c>
       <c r="O12" s="10">
+        <f t="shared" si="3"/>
+        <v>2077.6290847434748</v>
+      </c>
+      <c r="P12" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P12" s="10">
+        <v>213721.6531361872</v>
+      </c>
+      <c r="Q12" s="10">
         <f t="shared" si="5"/>
-        <v>218182.82922843387</v>
-      </c>
-      <c r="Q12" s="10">
+        <v>21985129.759051509</v>
+      </c>
+      <c r="R12" s="10">
         <f t="shared" si="6"/>
-        <v>22444042.245581467</v>
-      </c>
-      <c r="R12" s="10">
+        <v>4092.9292969446451</v>
+      </c>
+      <c r="S12" s="10">
         <f t="shared" si="7"/>
-        <v>4178.3641513866069</v>
-      </c>
-      <c r="S12" s="10">
+        <v>421031.65667828877</v>
+      </c>
+      <c r="T12" s="11">
         <f t="shared" si="8"/>
-        <v>429820.17358001473</v>
-      </c>
-      <c r="T12" s="11">
-        <f t="shared" si="9"/>
-        <v>0.1525617978415332</v>
+        <v>0.1541415445265153</v>
       </c>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
       <c r="W12" s="10">
-        <v>1.7365114572161444E-2</v>
+        <v>1.7375266949936352E-2</v>
       </c>
       <c r="X12" s="10">
         <f>SQRT(X9)</f>
-        <v>8.950778155051778E-5</v>
+        <v>9.4476524593115971E-5</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -4126,22 +4116,22 @@
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F13" s="8">
         <v>4.1100000000000003</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>228.8325806056788</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70749915481994463</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.1100000000000003</v>
       </c>
       <c r="L13" s="3">
@@ -4150,31 +4140,31 @@
       </c>
       <c r="M13" s="3">
         <f>SQRT(L13^2+(M1*J13)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.494829364902789E-2</v>
       </c>
       <c r="O13" s="10">
+        <f t="shared" si="3"/>
+        <v>1606.639002532911</v>
+      </c>
+      <c r="P13" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P13" s="10">
+        <v>367651.34905133973</v>
+      </c>
+      <c r="Q13" s="10">
         <f t="shared" si="5"/>
-        <v>485353.2240974895</v>
-      </c>
-      <c r="Q13" s="10">
+        <v>84130606.966577247</v>
+      </c>
+      <c r="R13" s="10">
         <f t="shared" si="6"/>
-        <v>111064630.77551486</v>
-      </c>
-      <c r="R13" s="10">
+        <v>6603.2863004102646</v>
+      </c>
+      <c r="S13" s="10">
         <f t="shared" si="7"/>
-        <v>8717.2977980705346</v>
-      </c>
-      <c r="S13" s="10">
+        <v>1511047.0446010064</v>
+      </c>
+      <c r="T13" s="11">
         <f t="shared" si="8"/>
-        <v>1994801.751040682</v>
-      </c>
-      <c r="T13" s="11">
-        <f t="shared" si="9"/>
-        <v>3.2107331370312049</v>
+        <v>2.5775570090373088</v>
       </c>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
@@ -4196,22 +4186,22 @@
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F14" s="8">
         <v>3.49</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>191.33356417094174</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.49498933780363863</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.49</v>
       </c>
       <c r="L14" s="3">
@@ -4220,31 +4210,31 @@
       </c>
       <c r="M14" s="3">
         <f>SQRT(L14^2+(M1*J14)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.3352939850450286E-2</v>
       </c>
       <c r="O14" s="10">
+        <f t="shared" si="3"/>
+        <v>1833.6518398050889</v>
+      </c>
+      <c r="P14" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P14" s="10">
+        <v>350839.14195851237</v>
+      </c>
+      <c r="Q14" s="10">
         <f t="shared" si="5"/>
-        <v>405817.92156796536</v>
-      </c>
-      <c r="Q14" s="10">
+        <v>67127303.48159717</v>
+      </c>
+      <c r="R14" s="10">
         <f t="shared" si="6"/>
-        <v>77646589.338042498</v>
-      </c>
-      <c r="R14" s="10">
+        <v>6399.444920919761</v>
+      </c>
+      <c r="S14" s="10">
         <f t="shared" si="7"/>
-        <v>7402.2796387508924</v>
-      </c>
-      <c r="S14" s="10">
+        <v>1224428.6054352084</v>
+      </c>
+      <c r="T14" s="11">
         <f t="shared" si="8"/>
-        <v>1416304.5462721994</v>
-      </c>
-      <c r="T14" s="11">
-        <f t="shared" si="9"/>
-        <v>0.12682332785624947</v>
+        <v>0.13243445056981121</v>
       </c>
       <c r="U14" s="10"/>
       <c r="V14" s="10" t="s">
@@ -4252,11 +4242,11 @@
       </c>
       <c r="W14" s="10">
         <f>T1/(COUNT(T3:T42)-2)</f>
-        <v>0.99999999999999967</v>
+        <v>0.87160067188109325</v>
       </c>
       <c r="X14" s="10">
         <f>SQRT(W14)*L1</f>
-        <v>2.1713506831987341E-2</v>
+        <v>2.0271633596298435E-2</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -4274,22 +4264,22 @@
         <v>9.0200000000000002E-2</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F15" s="8">
         <v>3.05</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>164.39413773002201</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.36573504715389371</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.05</v>
       </c>
       <c r="L15" s="3">
@@ -4298,46 +4288,46 @@
       </c>
       <c r="M15" s="3">
         <f>SQRT(L15^2+(M1*J15)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2623261782203731E-2</v>
       </c>
       <c r="O15" s="10">
+        <f t="shared" si="3"/>
+        <v>1953.8425270455843</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P15" s="10">
+        <v>321200.25749390607</v>
+      </c>
+      <c r="Q15" s="10">
         <f t="shared" si="5"/>
-        <v>348679.47806560219</v>
-      </c>
-      <c r="Q15" s="10">
+        <v>52803439.369371727</v>
+      </c>
+      <c r="R15" s="10">
         <f t="shared" si="6"/>
-        <v>57320862.140748791</v>
-      </c>
-      <c r="R15" s="10">
+        <v>5959.2197074890319</v>
+      </c>
+      <c r="S15" s="10">
         <f t="shared" si="7"/>
-        <v>6469.0409450401776</v>
-      </c>
-      <c r="S15" s="10">
+        <v>979660.78535641334</v>
+      </c>
+      <c r="T15" s="11">
         <f t="shared" si="8"/>
-        <v>1063472.4081000865</v>
-      </c>
-      <c r="T15" s="11">
-        <f t="shared" si="9"/>
-        <v>0.85465072675067355</v>
+        <v>0.74915125875925226</v>
       </c>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z15" s="10">
         <f>Y15*W$12</f>
-        <v>1.3892091657729155</v>
+        <v>1.2162686864955448</v>
       </c>
       <c r="AA15" s="10">
         <f>Z15+W$11</f>
-        <v>1.5644125736119081</v>
+        <v>1.3902954280230717</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -4355,22 +4345,22 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F16" s="8">
         <v>2.68</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>143.96457498299014</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.28076700529486293</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.68</v>
       </c>
       <c r="L16" s="3">
@@ -4379,31 +4369,31 @@
       </c>
       <c r="M16" s="3">
         <f>SQRT(L16^2+(M1*J16)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2254154187322458E-2</v>
       </c>
       <c r="O16" s="10">
+        <f t="shared" si="3"/>
+        <v>2019.192918982749</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P16" s="10">
+        <v>290692.25039001473</v>
+      </c>
+      <c r="Q16" s="10">
         <f t="shared" si="5"/>
-        <v>305348.43613123609</v>
-      </c>
-      <c r="Q16" s="10">
+        <v>41849386.278247423</v>
+      </c>
+      <c r="R16" s="10">
         <f t="shared" si="6"/>
-        <v>43959357.829354115</v>
-      </c>
-      <c r="R16" s="10">
+        <v>5411.437022873768</v>
+      </c>
+      <c r="S16" s="10">
         <f t="shared" si="7"/>
-        <v>5684.272043510714</v>
-      </c>
-      <c r="S16" s="10">
+        <v>779055.23104523949</v>
+      </c>
+      <c r="T16" s="11">
         <f t="shared" si="8"/>
-        <v>818333.80883171281</v>
-      </c>
-      <c r="T16" s="11">
-        <f t="shared" si="9"/>
-        <v>4.9588219102309414E-2</v>
+        <v>4.1808530381653483E-2</v>
       </c>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -4414,11 +4404,11 @@
       </c>
       <c r="Z16" s="10">
         <f>Y16*W$12</f>
-        <v>4.3412786430403614</v>
+        <v>4.3438167374840884</v>
       </c>
       <c r="AA16" s="10">
         <f>Z16+W$11</f>
-        <v>4.5164820508793539</v>
+        <v>4.5178434790116153</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -4436,22 +4426,22 @@
         <v>0.1154</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F17" s="8">
         <v>2.41</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>128.49524456887335</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.22391885865367239</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.41</v>
       </c>
       <c r="L17" s="3">
@@ -4460,31 +4450,31 @@
       </c>
       <c r="M17" s="3">
         <f>SQRT(L17^2+(M1*J17)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2058917738669716E-2</v>
       </c>
       <c r="O17" s="10">
+        <f t="shared" si="3"/>
+        <v>2055.0935572055528</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P17" s="10">
+        <v>264069.74924504344</v>
+      </c>
+      <c r="Q17" s="10">
         <f t="shared" si="5"/>
-        <v>272538.03224885021</v>
-      </c>
-      <c r="Q17" s="10">
+        <v>33931707.012482911</v>
+      </c>
+      <c r="R17" s="10">
         <f t="shared" si="6"/>
-        <v>35019841.108135499</v>
-      </c>
-      <c r="R17" s="10">
+        <v>4952.7754728653827</v>
+      </c>
+      <c r="S17" s="10">
         <f t="shared" si="7"/>
-        <v>5111.6028450973208</v>
-      </c>
-      <c r="S17" s="10">
+        <v>636408.09568055475</v>
+      </c>
+      <c r="T17" s="11">
         <f t="shared" si="8"/>
-        <v>656816.65771972912</v>
-      </c>
-      <c r="T17" s="11">
-        <f t="shared" si="9"/>
-        <v>2.542033107846756E-2</v>
+        <v>2.2844635196959773E-2</v>
       </c>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
@@ -4506,22 +4496,22 @@
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F18" s="8">
         <v>3.96</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>219.15753674168806</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.6778072914115113</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.96</v>
       </c>
       <c r="L18" s="3">
@@ -4530,31 +4520,31 @@
       </c>
       <c r="M18" s="3">
         <f>SQRT(L18^2+(M1*J18)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.469846183377767E-2</v>
       </c>
       <c r="O18" s="10">
+        <f t="shared" si="3"/>
+        <v>1639.30659330156</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P18" s="10">
+        <v>359266.39495237812</v>
+      </c>
+      <c r="Q18" s="10">
         <f t="shared" si="5"/>
-        <v>464832.48478561547</v>
-      </c>
-      <c r="Q18" s="10">
+        <v>78735938.151829615</v>
+      </c>
+      <c r="R18" s="10">
         <f t="shared" si="6"/>
-        <v>101871542.36313368</v>
-      </c>
-      <c r="R18" s="10">
+        <v>6491.6541094741779</v>
+      </c>
+      <c r="S18" s="10">
         <f t="shared" si="7"/>
-        <v>8399.1482433964266</v>
-      </c>
-      <c r="S18" s="10">
+        <v>1422694.9240114174</v>
+      </c>
+      <c r="T18" s="11">
         <f t="shared" si="8"/>
-        <v>1840736.6397510373</v>
-      </c>
-      <c r="T18" s="11">
-        <f t="shared" si="9"/>
-        <v>0.92639670949751807</v>
+        <v>0.789638261900382</v>
       </c>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
@@ -4576,22 +4566,22 @@
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F19" s="8">
         <v>3.37</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>183.24397910788886</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.47428221158366562</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.37</v>
       </c>
       <c r="L19" s="3">
@@ -4600,31 +4590,31 @@
       </c>
       <c r="M19" s="3">
         <f>SQRT(L19^2+(M1*J19)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.3222995015639701E-2</v>
       </c>
       <c r="O19" s="10">
+        <f t="shared" si="3"/>
+        <v>1854.2297384000792</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P19" s="10">
+        <v>339776.43544461037</v>
+      </c>
+      <c r="Q19" s="10">
         <f t="shared" si="5"/>
-        <v>388659.93566590815</v>
-      </c>
-      <c r="Q19" s="10">
+        <v>62261986.037965134</v>
+      </c>
+      <c r="R19" s="10">
         <f t="shared" si="6"/>
-        <v>71219593.131237105</v>
-      </c>
-      <c r="R19" s="10">
+        <v>6248.7542184082668</v>
+      </c>
+      <c r="S19" s="10">
         <f t="shared" si="7"/>
-        <v>7147.7599950116064</v>
-      </c>
-      <c r="S19" s="10">
+        <v>1145046.5874483369</v>
+      </c>
+      <c r="T19" s="11">
         <f t="shared" si="8"/>
-        <v>1309783.9831941104</v>
-      </c>
-      <c r="T19" s="11">
-        <f t="shared" si="9"/>
-        <v>0.34446475359267159</v>
+        <v>0.26969499471417208</v>
       </c>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
@@ -4646,22 +4636,22 @@
         <v>9.0200000000000002E-2</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F20" s="8">
         <v>2.92</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>157.44355189425039</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.35049258203466721</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.92</v>
       </c>
       <c r="L20" s="3">
@@ -4670,31 +4660,31 @@
       </c>
       <c r="M20" s="3">
         <f>SQRT(L20^2+(M1*J20)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2550387143612557E-2</v>
       </c>
       <c r="O20" s="10">
+        <f t="shared" si="3"/>
+        <v>1966.4911468909459</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P20" s="10">
+        <v>309611.35093510861</v>
+      </c>
+      <c r="Q20" s="10">
         <f t="shared" si="5"/>
-        <v>333937.30614310288</v>
-      </c>
-      <c r="Q20" s="10">
+        <v>48746310.798000738</v>
+      </c>
+      <c r="R20" s="10">
         <f t="shared" si="6"/>
-        <v>52576275.589167796</v>
-      </c>
-      <c r="R20" s="10">
+        <v>5742.1541489215615</v>
+      </c>
+      <c r="S20" s="10">
         <f t="shared" si="7"/>
-        <v>6193.3113309892842</v>
-      </c>
-      <c r="S20" s="10">
+        <v>904065.14473051706</v>
+      </c>
+      <c r="T20" s="11">
         <f t="shared" si="8"/>
-        <v>975096.9339378603</v>
-      </c>
-      <c r="T20" s="11">
-        <f t="shared" si="9"/>
-        <v>0.24607884401388508</v>
+        <v>0.21063569613968616</v>
       </c>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
@@ -4716,22 +4706,22 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F21" s="8">
         <v>2.59</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>137.87775127049889</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.26911674488348869</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.59</v>
       </c>
       <c r="L21" s="3">
@@ -4740,31 +4730,31 @@
       </c>
       <c r="M21" s="3">
         <f>SQRT(L21^2+(M1*J21)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2210708680521572E-2</v>
       </c>
       <c r="O21" s="10">
+        <f t="shared" si="3"/>
+        <v>2027.0999748589763</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P21" s="10">
+        <v>279491.98613404052</v>
+      </c>
+      <c r="Q21" s="10">
         <f t="shared" si="5"/>
-        <v>292438.30110784352</v>
-      </c>
-      <c r="Q21" s="10">
+        <v>38535726.546286963</v>
+      </c>
+      <c r="R21" s="10">
         <f t="shared" si="6"/>
-        <v>40320735.342114508</v>
-      </c>
-      <c r="R21" s="10">
+        <v>5250.1889348847481</v>
+      </c>
+      <c r="S21" s="10">
         <f t="shared" si="7"/>
-        <v>5493.382310706249</v>
-      </c>
-      <c r="S21" s="10">
+        <v>723884.24408716487</v>
+      </c>
+      <c r="T21" s="11">
         <f t="shared" si="8"/>
-        <v>757415.19986931467</v>
-      </c>
-      <c r="T21" s="11">
-        <f t="shared" si="9"/>
-        <v>0.89427714949442505</v>
+        <v>0.83621395560117495</v>
       </c>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
@@ -4786,22 +4776,22 @@
         <v>0.1154</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F22" s="8">
         <v>2.33</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>123.06246430555794</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.2146718711267806</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.33</v>
       </c>
       <c r="L22" s="3">
@@ -4810,31 +4800,31 @@
       </c>
       <c r="M22" s="3">
         <f>SQRT(L22^2+(M1*J22)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2031179813881582E-2</v>
       </c>
       <c r="O22" s="10">
+        <f t="shared" si="3"/>
+        <v>2060.2716653148277</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P22" s="10">
+        <v>253542.1082725584</v>
+      </c>
+      <c r="Q22" s="10">
         <f t="shared" si="5"/>
-        <v>261015.12143940973</v>
-      </c>
-      <c r="Q22" s="10">
+        <v>31201516.649247624</v>
+      </c>
+      <c r="R22" s="10">
         <f t="shared" si="6"/>
-        <v>32121164.06534823</v>
-      </c>
-      <c r="R22" s="10">
+        <v>4800.4329801835484</v>
+      </c>
+      <c r="S22" s="10">
         <f t="shared" si="7"/>
-        <v>4941.9230826044641</v>
-      </c>
-      <c r="S22" s="10">
+        <v>590753.11227506108</v>
+      </c>
+      <c r="T22" s="11">
         <f t="shared" si="8"/>
-        <v>608165.23295382468</v>
-      </c>
-      <c r="T22" s="11">
-        <f t="shared" si="9"/>
-        <v>0.67222813413107663</v>
+        <v>0.64765892211333542</v>
       </c>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
@@ -4856,22 +4846,22 @@
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F23" s="8">
         <v>3.44</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>189.93396842303008</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.58835753280764425</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.44</v>
       </c>
       <c r="L23" s="3">
@@ -4880,31 +4870,31 @@
       </c>
       <c r="M23" s="3">
         <f>SQRT(L23^2+(M1*J23)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.3997111120613406E-2</v>
       </c>
       <c r="O23" s="10">
+        <f t="shared" si="3"/>
+        <v>1736.5291378865493</v>
+      </c>
+      <c r="P23" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P23" s="10">
+        <v>329825.87044101552</v>
+      </c>
+      <c r="Q23" s="10">
         <f t="shared" si="5"/>
-        <v>402849.38314181962</v>
-      </c>
-      <c r="Q23" s="10">
+        <v>62645136.461442254</v>
+      </c>
+      <c r="R23" s="10">
         <f t="shared" si="6"/>
-        <v>76514782.016895518</v>
-      </c>
-      <c r="R23" s="10">
+        <v>5973.6602343297291</v>
+      </c>
+      <c r="S23" s="10">
         <f t="shared" si="7"/>
-        <v>7296.2297871928558</v>
-      </c>
-      <c r="S23" s="10">
+        <v>1134600.9943170934</v>
+      </c>
+      <c r="T23" s="11">
         <f t="shared" si="8"/>
-        <v>1385801.8780078595</v>
-      </c>
-      <c r="T23" s="11">
-        <f t="shared" si="9"/>
-        <v>2.3701434713175602</v>
+        <v>2.0287563641111324</v>
       </c>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -4926,22 +4916,22 @@
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F24" s="8">
         <v>2.94</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>158.80930521048191</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.41197037108861767</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.94</v>
       </c>
       <c r="L24" s="3">
@@ -4950,31 +4940,31 @@
       </c>
       <c r="M24" s="3">
         <f>SQRT(L24^2+(M1*J24)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2861645736479266E-2</v>
       </c>
       <c r="O24" s="10">
+        <f t="shared" si="3"/>
+        <v>1913.3085784502434</v>
+      </c>
+      <c r="P24" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P24" s="10">
+        <v>303851.20599693799</v>
+      </c>
+      <c r="Q24" s="10">
         <f t="shared" si="5"/>
-        <v>336834.06487212784</v>
-      </c>
-      <c r="Q24" s="10">
+        <v>48254398.911740735</v>
+      </c>
+      <c r="R24" s="10">
         <f t="shared" si="6"/>
-        <v>53492383.813565016</v>
-      </c>
-      <c r="R24" s="10">
+        <v>5625.1272206437152</v>
+      </c>
+      <c r="S24" s="10">
         <f t="shared" si="7"/>
-        <v>6235.7312716124989</v>
-      </c>
-      <c r="S24" s="10">
+        <v>893322.54563099763</v>
+      </c>
+      <c r="T24" s="11">
         <f t="shared" si="8"/>
-        <v>990292.15072405571</v>
-      </c>
-      <c r="T24" s="11">
-        <f t="shared" si="9"/>
-        <v>0.10556281367036277</v>
+        <v>8.3828989079482635E-2</v>
       </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
@@ -4996,22 +4986,22 @@
         <v>9.0200000000000002E-2</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F25" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>136.4492367384961</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.30468613567701774</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="L25" s="3">
@@ -5020,31 +5010,31 @@
       </c>
       <c r="M25" s="3">
         <f>SQRT(L25^2+(M1*J25)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2348827797352026E-2</v>
       </c>
       <c r="O25" s="10">
+        <f t="shared" si="3"/>
+        <v>2002.1218330392596</v>
+      </c>
+      <c r="P25" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P25" s="10">
+        <v>273187.99597568571</v>
+      </c>
+      <c r="Q25" s="10">
         <f t="shared" si="5"/>
-        <v>289408.42602649564</v>
-      </c>
-      <c r="Q25" s="10">
+        <v>37276293.537001662</v>
+      </c>
+      <c r="R25" s="10">
         <f t="shared" si="6"/>
-        <v>39489558.83700484</v>
-      </c>
-      <c r="R25" s="10">
+        <v>5105.4106742501117</v>
+      </c>
+      <c r="S25" s="10">
         <f t="shared" si="7"/>
-        <v>5408.5424294598206</v>
-      </c>
-      <c r="S25" s="10">
-        <f t="shared" si="8"/>
-        <v>737991.48636756383</v>
+        <v>696629.38973799848</v>
       </c>
       <c r="T25" s="10">
         <f>O25*(K25-W$11-W$12*I25)^2</f>
-        <v>6.0480662841701623E-2</v>
+        <v>5.2717272905519481E-2</v>
       </c>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
@@ -5066,22 +5056,22 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F26" s="8">
         <v>2.25</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>119.49243838652767</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.23415981608593198</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
       <c r="L26" s="3">
@@ -5090,31 +5080,31 @@
       </c>
       <c r="M26" s="3">
         <f>SQRT(L26^2+(M1*J26)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2090958767163212E-2</v>
       </c>
       <c r="O26" s="10">
+        <f t="shared" si="3"/>
+        <v>2049.1364089444287</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P26" s="10">
+        <v>244856.30609138269</v>
+      </c>
+      <c r="Q26" s="10">
         <f t="shared" si="5"/>
-        <v>253443.10706397973</v>
-      </c>
-      <c r="Q26" s="10">
+        <v>29258477.069177307</v>
+      </c>
+      <c r="R26" s="10">
         <f t="shared" si="6"/>
-        <v>30284534.855332732</v>
-      </c>
-      <c r="R26" s="10">
+        <v>4610.5569201249646</v>
+      </c>
+      <c r="S26" s="10">
         <f t="shared" si="7"/>
-        <v>4772.2433201116064</v>
-      </c>
-      <c r="S26" s="10">
+        <v>550926.68870561104</v>
+      </c>
+      <c r="T26" s="11">
         <f t="shared" si="8"/>
-        <v>570246.99089395429</v>
-      </c>
-      <c r="T26" s="11">
-        <f t="shared" si="9"/>
-        <v>8.7654871480187126E-5</v>
+        <v>1.1779135928573976E-4</v>
       </c>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
@@ -5136,22 +5126,22 @@
         <v>0.1154</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F27" s="8">
         <v>2.04</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>106.6526963068661</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.18697321177185153</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.04</v>
       </c>
       <c r="L27" s="3">
@@ -5160,31 +5150,31 @@
       </c>
       <c r="M27" s="3">
         <f>SQRT(L27^2+(M1*J27)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.1954912028955036E-2</v>
       </c>
       <c r="O27" s="10">
+        <f t="shared" si="3"/>
+        <v>2074.6106234620092</v>
+      </c>
+      <c r="P27" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P27" s="10">
+        <v>221262.81677909181</v>
+      </c>
+      <c r="Q27" s="10">
         <f t="shared" si="5"/>
-        <v>226210.05223214824</v>
-      </c>
-      <c r="Q27" s="10">
+        <v>23598276.001942236</v>
+      </c>
+      <c r="R27" s="10">
         <f t="shared" si="6"/>
-        <v>24125912.002275627</v>
-      </c>
-      <c r="R27" s="10">
+        <v>4232.205671862499</v>
+      </c>
+      <c r="S27" s="10">
         <f t="shared" si="7"/>
-        <v>4326.8339435678563</v>
-      </c>
-      <c r="S27" s="10">
+        <v>451376.14622934733</v>
+      </c>
+      <c r="T27" s="11">
         <f t="shared" si="8"/>
-        <v>461468.50655358244</v>
-      </c>
-      <c r="T27" s="11">
-        <f t="shared" si="9"/>
-        <v>0.34535195850702188</v>
+        <v>0.34278828726568661</v>
       </c>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
@@ -5206,22 +5196,22 @@
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F28" s="8">
         <v>3.07</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>166.55231559545732</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.51722244345072588</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.07</v>
       </c>
       <c r="L28" s="3">
@@ -5230,31 +5220,31 @@
       </c>
       <c r="M28" s="3">
         <f>SQRT(L28^2+(M1*J28)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.34977871793694E-2</v>
       </c>
       <c r="O28" s="10">
+        <f t="shared" si="3"/>
+        <v>1811.1151684258316</v>
+      </c>
+      <c r="P28" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P28" s="10">
+        <v>301645.42511137895</v>
+      </c>
+      <c r="Q28" s="10">
         <f t="shared" si="5"/>
-        <v>353256.96691090724</v>
-      </c>
-      <c r="Q28" s="10">
+        <v>50239744.041076273</v>
+      </c>
+      <c r="R28" s="10">
         <f t="shared" si="6"/>
-        <v>58835765.839239448</v>
-      </c>
-      <c r="R28" s="10">
+        <v>5560.1235670673032</v>
+      </c>
+      <c r="S28" s="10">
         <f t="shared" si="7"/>
-        <v>6511.4608856633913</v>
-      </c>
-      <c r="S28" s="10">
-        <f t="shared" si="8"/>
-        <v>1084498.8884164852</v>
+        <v>926051.45509193325</v>
       </c>
       <c r="T28" s="10">
         <f>O28*(K28-W$11-W$12*I28)^2</f>
-        <v>1.4299909941165957E-2</v>
+        <v>7.853051621421343E-3</v>
       </c>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -5276,18 +5266,18 @@
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F29" s="8">
         <v>2.04</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>139.25922645916947</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.36254656019252485</v>
       </c>
       <c r="K29" s="12">
@@ -5299,31 +5289,31 @@
       </c>
       <c r="M29" s="3">
         <f>SQRT(L29^2+(M1*J29)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2607780650813834E-2</v>
       </c>
       <c r="O29" s="10">
+        <f t="shared" si="3"/>
+        <v>1956.5193089642519</v>
+      </c>
+      <c r="P29" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P29" s="10">
+        <v>272463.3655187905</v>
+      </c>
+      <c r="Q29" s="10">
         <f t="shared" si="5"/>
-        <v>295368.40588163596</v>
-      </c>
-      <c r="Q29" s="10">
+        <v>37943037.520608708</v>
+      </c>
+      <c r="R29" s="10">
         <f t="shared" si="6"/>
-        <v>41132775.723554626</v>
-      </c>
-      <c r="R29" s="10">
+        <v>5086.9502033070548</v>
+      </c>
+      <c r="S29" s="10">
         <f t="shared" si="7"/>
-        <v>5514.5922810178563</v>
-      </c>
-      <c r="S29" s="10">
-        <f t="shared" si="8"/>
-        <v>767957.85529225355</v>
+        <v>708404.75034885528</v>
       </c>
       <c r="T29" s="10">
         <f>O29*(K29-W$11-W$12*I29)^2</f>
-        <v>9.0834145515914233E-2</v>
+        <v>7.7827492283640165E-2</v>
       </c>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
@@ -5345,22 +5335,22 @@
         <v>9.0200000000000002E-2</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F30" s="8">
         <v>2.25</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>119.65177439673651</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.26846628776698706</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
       <c r="L30" s="3">
@@ -5369,31 +5359,31 @@
       </c>
       <c r="M30" s="3">
         <f>SQRT(L30^2+(M1*J30)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2208334846630477E-2</v>
       </c>
       <c r="O30" s="10">
+        <f t="shared" si="3"/>
+        <v>2027.5333487098148</v>
+      </c>
+      <c r="P30" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P30" s="10">
+        <v>242597.96282168647</v>
+      </c>
+      <c r="Q30" s="10">
         <f t="shared" si="5"/>
-        <v>253781.05826858967</v>
-      </c>
-      <c r="Q30" s="10">
+        <v>29027276.716648303</v>
+      </c>
+      <c r="R30" s="10">
         <f t="shared" si="6"/>
-        <v>30365353.930118334</v>
-      </c>
-      <c r="R30" s="10">
+        <v>4561.9500345970837</v>
+      </c>
+      <c r="S30" s="10">
         <f t="shared" si="7"/>
-        <v>4772.2433201116064</v>
-      </c>
-      <c r="S30" s="10">
-        <f t="shared" si="8"/>
-        <v>571007.38110432669</v>
+        <v>545845.41634879448</v>
       </c>
       <c r="T30" s="10">
         <f>O30*(K30-W$11-W$12*I30)^2</f>
-        <v>1.871135796069448E-2</v>
+        <v>1.8348456014848601E-2</v>
       </c>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
@@ -5415,22 +5405,22 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F31" s="8">
         <v>2.0099999999999998</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>104.78242767558869</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.20661839980250127</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.0099999999999998</v>
       </c>
       <c r="L31" s="3">
@@ -5439,31 +5429,31 @@
       </c>
       <c r="M31" s="3">
         <f>SQRT(L31^2+(M1*J31)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2007948105779138E-2</v>
       </c>
       <c r="O31" s="10">
+        <f t="shared" si="3"/>
+        <v>2064.6236287293582</v>
+      </c>
+      <c r="P31" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P31" s="10">
+        <v>216336.27605464545</v>
+      </c>
+      <c r="Q31" s="10">
         <f t="shared" si="5"/>
-        <v>222243.21801773584</v>
-      </c>
-      <c r="Q31" s="10">
+        <v>22668240.199302077</v>
+      </c>
+      <c r="R31" s="10">
         <f t="shared" si="6"/>
-        <v>23287183.918333497</v>
-      </c>
-      <c r="R31" s="10">
+        <v>4149.8934937460099</v>
+      </c>
+      <c r="S31" s="10">
         <f t="shared" si="7"/>
-        <v>4263.2040326330343</v>
-      </c>
-      <c r="S31" s="10">
+        <v>434835.91486983735</v>
+      </c>
+      <c r="T31" s="11">
         <f t="shared" si="8"/>
-        <v>446708.86821564904</v>
-      </c>
-      <c r="T31" s="11">
-        <f t="shared" si="9"/>
-        <v>0.49247096754115627</v>
+        <v>0.486510189012206</v>
       </c>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -5485,22 +5475,22 @@
         <v>0.1154</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F32" s="8">
         <v>1.8</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>93.523310663653675</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.16523670123428696</v>
       </c>
       <c r="K32" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
       <c r="L32" s="3">
@@ -5509,31 +5499,31 @@
       </c>
       <c r="M32" s="3">
         <f>SQRT(L32^2+(M1*J32)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.1902273232381909E-2</v>
       </c>
       <c r="O32" s="10">
+        <f t="shared" si="3"/>
+        <v>2084.5946314472826</v>
+      </c>
+      <c r="P32" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P32" s="10">
+        <v>194958.19132462886</v>
+      </c>
+      <c r="Q32" s="10">
         <f t="shared" si="5"/>
-        <v>198362.66426193059</v>
-      </c>
-      <c r="Q32" s="10">
+        <v>18233135.493677296</v>
+      </c>
+      <c r="R32" s="10">
         <f t="shared" si="6"/>
-        <v>18551533.073838565</v>
-      </c>
-      <c r="R32" s="10">
+        <v>3752.2703366051087</v>
+      </c>
+      <c r="S32" s="10">
         <f t="shared" si="7"/>
-        <v>3817.7946560892851</v>
-      </c>
-      <c r="S32" s="10">
+        <v>350924.74438433192</v>
+      </c>
+      <c r="T32" s="11">
         <f t="shared" si="8"/>
-        <v>357052.79567147506</v>
-      </c>
-      <c r="T32" s="11">
-        <f t="shared" si="9"/>
-        <v>1.2045011636633021E-3</v>
+        <v>2.0051905576757702E-3</v>
       </c>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
@@ -5555,22 +5545,22 @@
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F33" s="8">
         <v>3.78</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>204.47385277841835</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.63280937886761224</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.78</v>
       </c>
       <c r="L33" s="3">
@@ -5579,31 +5569,31 @@
       </c>
       <c r="M33" s="3">
         <f>SQRT(L33^2+(M1*J33)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.4335781604009465E-2</v>
       </c>
       <c r="O33" s="10">
+        <f t="shared" si="3"/>
+        <v>1688.5324120373664</v>
+      </c>
+      <c r="P33" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P33" s="10">
+        <v>345260.72783051606</v>
+      </c>
+      <c r="Q33" s="10">
         <f t="shared" si="5"/>
-        <v>433688.43469301821</v>
-      </c>
-      <c r="Q33" s="10">
+        <v>70596791.232586503</v>
+      </c>
+      <c r="R33" s="10">
         <f t="shared" si="6"/>
-        <v>88677945.147122905</v>
-      </c>
-      <c r="R33" s="10">
+        <v>6382.6525175012448</v>
+      </c>
+      <c r="S33" s="10">
         <f t="shared" si="7"/>
-        <v>8017.3687777874984</v>
-      </c>
-      <c r="S33" s="10">
+        <v>1305085.5511993507</v>
+      </c>
+      <c r="T33" s="11">
         <f t="shared" si="8"/>
-        <v>1639342.2831396088</v>
-      </c>
-      <c r="T33" s="11">
-        <f t="shared" si="9"/>
-        <v>6.2042472649288252</v>
+        <v>4.7763440577780578</v>
       </c>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
@@ -5625,22 +5615,22 @@
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F34" s="8">
         <v>3.15</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>170.96652464569686</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.44292017359230634</v>
       </c>
       <c r="K34" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.15</v>
       </c>
       <c r="L34" s="3">
@@ -5649,31 +5639,31 @@
       </c>
       <c r="M34" s="3">
         <f>SQRT(L34^2+(M1*J34)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.3035481128805033E-2</v>
       </c>
       <c r="O34" s="10">
+        <f t="shared" si="3"/>
+        <v>1884.5402819928179</v>
+      </c>
+      <c r="P34" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P34" s="10">
+        <v>322193.30256713362</v>
+      </c>
+      <c r="Q34" s="10">
         <f t="shared" si="5"/>
-        <v>362619.49120138807</v>
-      </c>
-      <c r="Q34" s="10">
+        <v>55084269.204022318</v>
+      </c>
+      <c r="R34" s="10">
         <f t="shared" si="6"/>
-        <v>61995794.179492168</v>
-      </c>
-      <c r="R34" s="10">
+        <v>5936.3018882773758</v>
+      </c>
+      <c r="S34" s="10">
         <f t="shared" si="7"/>
-        <v>6681.140648156249</v>
-      </c>
-      <c r="S34" s="10">
+        <v>1014908.9030864709</v>
+      </c>
+      <c r="T34" s="11">
         <f t="shared" si="8"/>
-        <v>1142251.3972843725</v>
-      </c>
-      <c r="T34" s="11">
-        <f t="shared" si="9"/>
-        <v>7.4919678398412168E-2</v>
+        <v>5.4633167771705536E-2</v>
       </c>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
@@ -5695,22 +5685,22 @@
         <v>9.0200000000000002E-2</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F35" s="8">
         <v>2.74</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>146.8947412421453</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.32742402221066436</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.74</v>
       </c>
       <c r="L35" s="3">
@@ -5719,31 +5709,31 @@
       </c>
       <c r="M35" s="3">
         <f>SQRT(L35^2+(M1*J35)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.244558300336115E-2</v>
       </c>
       <c r="O35" s="10">
+        <f t="shared" si="3"/>
+        <v>1984.8981156240679</v>
+      </c>
+      <c r="P35" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P35" s="10">
+        <v>291571.09508661926</v>
+      </c>
+      <c r="Q35" s="10">
         <f t="shared" si="5"/>
-        <v>311563.31006771146</v>
-      </c>
-      <c r="Q35" s="10">
+        <v>42830260.566437878</v>
+      </c>
+      <c r="R35" s="10">
         <f t="shared" si="6"/>
-        <v>45767011.812942758</v>
-      </c>
-      <c r="R35" s="10">
+        <v>5438.6208368099469</v>
+      </c>
+      <c r="S35" s="10">
         <f t="shared" si="7"/>
-        <v>5811.531865380357</v>
-      </c>
-      <c r="S35" s="10">
+        <v>798904.80053733685</v>
+      </c>
+      <c r="T35" s="11">
         <f t="shared" si="8"/>
-        <v>853683.46958552953</v>
-      </c>
-      <c r="T35" s="11">
-        <f t="shared" si="9"/>
-        <v>0.41290403871131581</v>
+        <v>0.3691766563892076</v>
       </c>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
@@ -5765,22 +5755,22 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F36" s="8">
         <v>2.41</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>128.63986077710203</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.25149983589911595</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.41</v>
       </c>
       <c r="L36" s="3">
@@ -5789,31 +5779,31 @@
       </c>
       <c r="M36" s="3">
         <f>SQRT(L36^2+(M1*J36)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2148360959516649E-2</v>
       </c>
       <c r="O36" s="10">
+        <f t="shared" si="3"/>
+        <v>2038.5286264989152</v>
+      </c>
+      <c r="P36" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P36" s="10">
+        <v>262236.03870295745</v>
+      </c>
+      <c r="Q36" s="10">
         <f t="shared" si="5"/>
-        <v>272844.76279716101</v>
-      </c>
-      <c r="Q36" s="10">
+        <v>33734007.509487189</v>
+      </c>
+      <c r="R36" s="10">
         <f t="shared" si="6"/>
-        <v>35098712.299988218</v>
-      </c>
-      <c r="R36" s="10">
+        <v>4912.8539898623858</v>
+      </c>
+      <c r="S36" s="10">
         <f t="shared" si="7"/>
-        <v>5111.6028450973208</v>
-      </c>
-      <c r="S36" s="10">
+        <v>631988.85327412747</v>
+      </c>
+      <c r="T36" s="11">
         <f t="shared" si="8"/>
-        <v>657555.87834115792</v>
-      </c>
-      <c r="T36" s="11">
-        <f t="shared" si="9"/>
-        <v>1.9169057208260521E-3</v>
+        <v>1.3751803600491436E-3</v>
       </c>
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
@@ -5835,22 +5825,22 @@
         <v>0.1154</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F37" s="8">
         <v>2.1800000000000002</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>114.81720675945847</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.20070217037834498</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.1800000000000002</v>
       </c>
       <c r="L37" s="3">
@@ -5859,31 +5849,31 @@
       </c>
       <c r="M37" s="3">
         <f>SQRT(L37^2+(M1*J37)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.1991432667939154E-2</v>
       </c>
       <c r="O37" s="10">
+        <f t="shared" si="3"/>
+        <v>2067.7258337997855</v>
+      </c>
+      <c r="P37" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P37" s="10">
+        <v>237410.50458126364</v>
+      </c>
+      <c r="Q37" s="10">
         <f t="shared" si="5"/>
-        <v>243526.95466297728</v>
-      </c>
-      <c r="Q37" s="10">
+        <v>27258810.99137431</v>
+      </c>
+      <c r="R37" s="10">
         <f t="shared" si="6"/>
-        <v>27961084.705040332</v>
-      </c>
-      <c r="R37" s="10">
+        <v>4507.6423176835324</v>
+      </c>
+      <c r="S37" s="10">
         <f t="shared" si="7"/>
-        <v>4623.773527930357</v>
-      </c>
-      <c r="S37" s="10">
+        <v>517554.89998715476</v>
+      </c>
+      <c r="T37" s="11">
         <f t="shared" si="8"/>
-        <v>530888.76116529049</v>
-      </c>
-      <c r="T37" s="11">
-        <f t="shared" si="9"/>
-        <v>0.25583131858550129</v>
+        <v>0.24990561973716921</v>
       </c>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
@@ -5905,22 +5895,22 @@
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F38" s="8">
         <v>2.63</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>144.93033187498639</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.45211905001808739</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.63</v>
       </c>
       <c r="L38" s="3">
@@ -5929,31 +5919,31 @@
       </c>
       <c r="M38" s="3">
         <f>SQRT(L38^2+(M1*J38)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.3089307830265898E-2</v>
       </c>
       <c r="O38" s="10">
+        <f t="shared" si="3"/>
+        <v>1875.7638951833928</v>
+      </c>
+      <c r="P38" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P38" s="10">
+        <v>271855.08384804631</v>
+      </c>
+      <c r="Q38" s="10">
         <f t="shared" si="5"/>
-        <v>307396.80363198312</v>
-      </c>
-      <c r="Q38" s="10">
+        <v>39400047.523999602</v>
+      </c>
+      <c r="R38" s="10">
         <f t="shared" si="6"/>
-        <v>44551120.767693333</v>
-      </c>
-      <c r="R38" s="10">
+        <v>4933.2590443323234</v>
+      </c>
+      <c r="S38" s="10">
         <f t="shared" si="7"/>
-        <v>5578.2221919526773</v>
-      </c>
-      <c r="S38" s="10">
+        <v>714978.87052036182</v>
+      </c>
+      <c r="T38" s="11">
         <f t="shared" si="8"/>
-        <v>808453.59355211561</v>
-      </c>
-      <c r="T38" s="11">
-        <f t="shared" si="9"/>
-        <v>8.1360856447454566</v>
+        <v>7.2640200536390926</v>
       </c>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
@@ -5975,22 +5965,22 @@
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F39" s="8">
         <v>2.23</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>121.18045813547249</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.31751604268985295</v>
       </c>
       <c r="K39" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.23</v>
       </c>
       <c r="L39" s="3">
@@ -5999,31 +5989,31 @@
       </c>
       <c r="M39" s="3">
         <f>SQRT(L39^2+(M1*J39)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2402618011251731E-2</v>
       </c>
       <c r="O39" s="10">
+        <f t="shared" si="3"/>
+        <v>1992.5189133622553</v>
+      </c>
+      <c r="P39" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P39" s="10">
+        <v>241454.35476483192</v>
+      </c>
+      <c r="Q39" s="10">
         <f t="shared" si="5"/>
-        <v>257023.39194003234</v>
-      </c>
-      <c r="Q39" s="10">
+        <v>29259549.329207238</v>
+      </c>
+      <c r="R39" s="10">
         <f t="shared" si="6"/>
-        <v>31146212.386826225</v>
-      </c>
-      <c r="R39" s="10">
+        <v>4443.3171767978292</v>
+      </c>
+      <c r="S39" s="10">
         <f t="shared" si="7"/>
-        <v>4729.8233794883918</v>
-      </c>
-      <c r="S39" s="10">
+        <v>538443.21112557512</v>
+      </c>
+      <c r="T39" s="11">
         <f t="shared" si="8"/>
-        <v>573162.16402627213</v>
-      </c>
-      <c r="T39" s="11">
-        <f t="shared" si="9"/>
-        <v>5.200322101805936</v>
+        <v>4.8958986425848678</v>
       </c>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
@@ -6045,22 +6035,22 @@
         <v>9.0200000000000002E-2</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F40" s="8">
         <v>1.96</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>104.11846458424742</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.2356408642669067</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.96</v>
       </c>
       <c r="L40" s="3">
@@ -6069,31 +6059,31 @@
       </c>
       <c r="M40" s="3">
         <f>SQRT(L40^2+(M1*J40)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.2095707162842333E-2</v>
       </c>
       <c r="O40" s="10">
+        <f t="shared" si="3"/>
+        <v>2048.2557795179182</v>
+      </c>
+      <c r="P40" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P40" s="10">
+        <v>213261.24683921644</v>
+      </c>
+      <c r="Q40" s="10">
         <f t="shared" si="5"/>
-        <v>220834.9542722007</v>
-      </c>
-      <c r="Q40" s="10">
+        <v>22204433.576221403</v>
+      </c>
+      <c r="R40" s="10">
         <f t="shared" si="6"/>
-        <v>22992996.365354028</v>
-      </c>
-      <c r="R40" s="10">
+        <v>4014.5813278551195</v>
+      </c>
+      <c r="S40" s="10">
         <f t="shared" si="7"/>
-        <v>4157.1541810749995</v>
-      </c>
-      <c r="S40" s="10">
+        <v>417992.04380486422</v>
+      </c>
+      <c r="T40" s="11">
         <f t="shared" si="8"/>
-        <v>432836.51037351339</v>
-      </c>
-      <c r="T40" s="11">
-        <f t="shared" si="9"/>
-        <v>1.1448036251114269</v>
+        <v>1.0941868593066464</v>
       </c>
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
@@ -6115,22 +6105,22 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F41" s="8">
         <v>1.75</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>91.179470927175899</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.18181239672305646</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
       <c r="L41" s="3">
@@ -6139,31 +6129,31 @@
       </c>
       <c r="M41" s="3">
         <f>SQRT(L41^2+(M1*J41)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.194183782666749E-2</v>
       </c>
       <c r="O41" s="10">
+        <f t="shared" si="3"/>
+        <v>2077.0837034430756</v>
+      </c>
+      <c r="P41" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P41" s="10">
+        <v>189387.39315139875</v>
+      </c>
+      <c r="Q41" s="10">
         <f t="shared" si="5"/>
-        <v>193391.3871393447</v>
-      </c>
-      <c r="Q41" s="10">
+        <v>17268242.307821594</v>
+      </c>
+      <c r="R41" s="10">
         <f t="shared" si="6"/>
-        <v>17633324.3612381</v>
-      </c>
-      <c r="R41" s="10">
+        <v>3634.8964810253824</v>
+      </c>
+      <c r="S41" s="10">
         <f t="shared" si="7"/>
-        <v>3711.7448045312494</v>
-      </c>
-      <c r="S41" s="10">
+        <v>331427.93801494781</v>
+      </c>
+      <c r="T41" s="11">
         <f t="shared" si="8"/>
-        <v>338434.92749385326</v>
-      </c>
-      <c r="T41" s="11">
-        <f t="shared" si="9"/>
-        <v>0.15488220078617229</v>
+        <v>0.14289690505691266</v>
       </c>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
@@ -6185,22 +6175,22 @@
         <v>0.1154</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F42" s="8">
         <v>1.57</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>81.382023444533075</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.14579241500146897</v>
       </c>
       <c r="K42" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.57</v>
       </c>
       <c r="L42" s="3">
@@ -6209,31 +6199,31 @@
       </c>
       <c r="M42" s="3">
         <f>SQRT(L42^2+(M1*J42)^2)</f>
-        <v>2.1713506831987344E-2</v>
+        <v>2.186060140778863E-2</v>
       </c>
       <c r="O42" s="10">
+        <f t="shared" si="3"/>
+        <v>2092.5497336146304</v>
+      </c>
+      <c r="P42" s="10">
         <f t="shared" si="4"/>
-        <v>2120.997031160714</v>
-      </c>
-      <c r="P42" s="10">
+        <v>170295.9314798773</v>
+      </c>
+      <c r="Q42" s="10">
         <f t="shared" si="5"/>
-        <v>172611.03011570626</v>
-      </c>
-      <c r="Q42" s="10">
+        <v>13859027.488203973</v>
+      </c>
+      <c r="R42" s="10">
         <f t="shared" si="6"/>
-        <v>14047434.899661412</v>
-      </c>
-      <c r="R42" s="10">
+        <v>3285.30308177497</v>
+      </c>
+      <c r="S42" s="10">
         <f t="shared" si="7"/>
-        <v>3329.9653389223208</v>
-      </c>
-      <c r="S42" s="10">
+        <v>267364.61242340738</v>
+      </c>
+      <c r="T42" s="11">
         <f t="shared" si="8"/>
-        <v>270999.31728165882</v>
-      </c>
-      <c r="T42" s="11">
-        <f t="shared" si="9"/>
-        <v>0.71898803560965119</v>
+        <v>0.68259849716789833</v>
       </c>
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
@@ -6252,8 +6242,15 @@
       <c r="W43" s="10"/>
       <c r="X43" s="10"/>
     </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <f>SUM(M3:M42)/COUNT(M3:M42)</f>
+        <v>2.2659829138656919E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bainbridge_Corbin_Rochelle.xlsx
+++ b/Bainbridge_Corbin_Rochelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbin/Documents/GitHub/Lab-1-Bainbridge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E0375E-9CF6-C749-BAC8-BDBA644E6917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F457A08-C8BF-0345-97AA-219774B5D451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{5EE31F9F-B044-458F-B7D2-CD0B5C58CE29}"/>
   </bookViews>
@@ -1571,13 +1571,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>522112</xdr:colOff>
+      <xdr:colOff>11476</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>3</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>239889</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>80635</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>84671</xdr:rowOff>
     </xdr:to>

--- a/Bainbridge_Corbin_Rochelle.xlsx
+++ b/Bainbridge_Corbin_Rochelle.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbin/Documents/GitHub/Lab-1-Bainbridge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F457A08-C8BF-0345-97AA-219774B5D451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5392252B-05D3-6148-ADD3-81B1A63BD50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{5EE31F9F-B044-458F-B7D2-CD0B5C58CE29}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{5EE31F9F-B044-458F-B7D2-CD0B5C58CE29}"/>
   </bookViews>
   <sheets>
     <sheet name="I_E" sheetId="1" r:id="rId1"/>
     <sheet name="Helmholtz" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -196,14 +197,21 @@
   <si>
     <t>wxy</t>
   </si>
+  <si>
+    <t>e/m</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -240,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,6 +270,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3215,10 +3224,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AA44"/>
+  <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AI18" sqref="AI18"/>
+    <sheetView tabSelected="1" topLeftCell="P5" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3229,7 +3238,9 @@
     <col min="6" max="6" width="8.83203125" style="8"/>
     <col min="7" max="10" width="8.83203125" style="3"/>
     <col min="11" max="11" width="11" style="3" customWidth="1"/>
-    <col min="12" max="14" width="8.83203125" style="3"/>
+    <col min="12" max="12" width="8.83203125" style="3"/>
+    <col min="13" max="13" width="10.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="3"/>
     <col min="15" max="15" width="13.1640625" style="3" customWidth="1"/>
     <col min="16" max="16" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -3238,13 +3249,15 @@
     <col min="20" max="20" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.83203125" style="3"/>
     <col min="22" max="22" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5" style="3" customWidth="1"/>
+    <col min="24" max="24" width="19.5" style="3" customWidth="1"/>
     <col min="25" max="25" width="8.83203125" style="3"/>
-    <col min="26" max="27" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" style="3" customWidth="1"/>
     <col min="28" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3268,15 +3281,15 @@
         <v>1.7365114572161444E-2</v>
       </c>
       <c r="O1" s="10">
-        <f>SUM(O3:O42)</f>
+        <f t="shared" ref="O1:T1" si="0">SUM(O3:O42)</f>
         <v>78174.436200348195</v>
       </c>
       <c r="P1" s="10">
-        <f>SUM(P3:P42)</f>
+        <f t="shared" si="0"/>
         <v>11381587.010443835</v>
       </c>
       <c r="Q1" s="10">
-        <f t="shared" ref="Q1:S1" si="0">SUM(Q3:Q42)</f>
+        <f t="shared" si="0"/>
         <v>1769104730.0521536</v>
       </c>
       <c r="R1" s="10">
@@ -3288,7 +3301,7 @@
         <v>32719367.447890677</v>
       </c>
       <c r="T1" s="11">
-        <f>SUM(T3:T42)</f>
+        <f t="shared" si="0"/>
         <v>33.120825531481543</v>
       </c>
       <c r="U1" s="10"/>
@@ -3296,7 +3309,7 @@
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -3364,7 +3377,7 @@
         <v>11381587.010443835</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>60.28</v>
       </c>
@@ -3440,7 +3453,7 @@
         <v>1769104730.0521536</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>60.28</v>
       </c>
@@ -3509,7 +3522,7 @@
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>60.28</v>
       </c>
@@ -3531,7 +3544,7 @@
         <v>3.18</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" ref="I4:I42" si="10">SQRT(A5)/(D5/2)</f>
+        <f t="shared" ref="I5:I42" si="10">SQRT(A5)/(D5/2)</f>
         <v>172.15121014440507</v>
       </c>
       <c r="J5" s="3">
@@ -3584,7 +3597,7 @@
       </c>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>60.28</v>
       </c>
@@ -3657,7 +3670,7 @@
       </c>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>60.28</v>
       </c>
@@ -3727,7 +3740,7 @@
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>35.229999999999997</v>
       </c>
@@ -3804,7 +3817,7 @@
         <v>-1.2995287231240885E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>35.229999999999997</v>
       </c>
@@ -3878,7 +3891,7 @@
         <v>8.9258136991936463E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>35.229999999999997</v>
       </c>
@@ -3948,7 +3961,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>35.229999999999997</v>
       </c>
@@ -4026,7 +4039,7 @@
         <v>1.4212428797066263E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>35.229999999999997</v>
       </c>
@@ -4093,7 +4106,7 @@
       </c>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
-      <c r="W12" s="10">
+      <c r="W12" s="13">
         <v>1.7375266949936352E-2</v>
       </c>
       <c r="X12" s="10">
@@ -4101,7 +4114,7 @@
         <v>9.4476524593115971E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>54.97</v>
       </c>
@@ -4171,7 +4184,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>54.97</v>
       </c>
@@ -4248,8 +4261,11 @@
         <f>SQRT(W14)*L1</f>
         <v>2.0271633596298435E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>54.97</v>
       </c>
@@ -4330,7 +4346,7 @@
         <v>1.3902954280230717</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>54.97</v>
       </c>
@@ -4411,7 +4427,7 @@
         <v>4.5178434790116153</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>54.97</v>
       </c>
@@ -4481,7 +4497,7 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>50.42</v>
       </c>
@@ -4551,7 +4567,7 @@
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>50.42</v>
       </c>
@@ -4618,10 +4634,21 @@
       </c>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X19" s="10">
+        <v>1.73908</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA19" s="10">
+        <f>ABS(X19-X20)/AD14</f>
+        <v>0.98599999999999799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>50.42</v>
       </c>
@@ -4689,9 +4716,11 @@
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X20" s="10">
+        <v>1.7587999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>50.42</v>
       </c>
@@ -4761,7 +4790,7 @@
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>50.42</v>
       </c>
@@ -4831,7 +4860,7 @@
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>37.869999999999997</v>
       </c>
@@ -4901,7 +4930,7 @@
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>37.869999999999997</v>
       </c>
@@ -4971,7 +5000,7 @@
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>37.869999999999997</v>
       </c>
@@ -5041,7 +5070,7 @@
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>37.869999999999997</v>
       </c>
@@ -5111,7 +5140,7 @@
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>37.869999999999997</v>
       </c>
@@ -5181,7 +5210,7 @@
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>29.12</v>
       </c>
@@ -5251,7 +5280,7 @@
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>29.12</v>
       </c>
@@ -5320,7 +5349,7 @@
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29.12</v>
       </c>
@@ -5390,7 +5419,7 @@
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29.12</v>
       </c>
@@ -5460,7 +5489,7 @@
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29.12</v>
       </c>
